--- a/text_eng.xlsx
+++ b/text_eng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="263">
   <si>
     <t>Оригінальний текст</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>The absence of vehicle tracks on the fields surrounding the fortification suggests the presence of mine fields.</t>
-  </si>
-  <si>
-    <t>У цьому укріпленні є й "виносні" спостережні пункти. Стрілецькі або кулементі позиції перебувають дещо віддалік від основного окопу — на відстані близько 70-90 м.</t>
   </si>
   <si>
     <t>The fortification also relies on forward listening posts. Rifle and machine-gun posts are positioned at a distance of 70-90 m from the main trench.</t>
@@ -2452,7 +2449,7 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2644,7 +2641,7 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2708,7 +2705,7 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2772,7 +2769,7 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2804,7 +2801,7 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2836,7 +2833,7 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2868,11 +2865,11 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>97</v>
+      <c r="A55" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2900,11 +2897,11 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>99</v>
+      <c r="A56" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2933,10 +2930,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2965,10 +2962,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2997,10 +2994,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3028,11 +3025,11 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>107</v>
+      <c r="A60" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3060,11 +3057,11 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>109</v>
+      <c r="A61" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3092,11 +3089,11 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>111</v>
+      <c r="A62" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3124,11 +3121,11 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>113</v>
+      <c r="A63" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3156,11 +3153,11 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>115</v>
+      <c r="A64" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3188,11 +3185,11 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4" t="s">
-        <v>117</v>
+      <c r="A65" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3220,11 +3217,11 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>119</v>
+      <c r="A66" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3253,10 +3250,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3284,11 +3281,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4" t="s">
-        <v>123</v>
+      <c r="A68" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3316,11 +3313,11 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>125</v>
+      <c r="A69" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3348,11 +3345,11 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>127</v>
+      <c r="A70" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3380,11 +3377,11 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>129</v>
+      <c r="A71" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3412,11 +3409,11 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>131</v>
+      <c r="A72" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3444,11 +3441,11 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>133</v>
+      <c r="A73" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3476,11 +3473,11 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="4" t="s">
-        <v>135</v>
+      <c r="A74" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3509,10 +3506,10 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3541,10 +3538,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3573,10 +3570,10 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3605,10 +3602,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3636,11 +3633,11 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4" t="s">
-        <v>143</v>
+      <c r="A79" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3668,11 +3665,11 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4" t="s">
-        <v>145</v>
+      <c r="A80" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3700,11 +3697,11 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4" t="s">
-        <v>147</v>
+      <c r="A81" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3733,10 +3730,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3765,10 +3762,10 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3797,10 +3794,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3829,10 +3826,10 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3861,10 +3858,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3892,11 +3889,11 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="4" t="s">
-        <v>157</v>
+      <c r="A87" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3924,11 +3921,11 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="4" t="s">
-        <v>159</v>
+      <c r="A88" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3956,11 +3953,11 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4" t="s">
-        <v>161</v>
+      <c r="A89" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3988,11 +3985,11 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="4" t="s">
-        <v>163</v>
+      <c r="A90" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4020,11 +4017,11 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="4" t="s">
-        <v>165</v>
+      <c r="A91" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4052,11 +4049,11 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4" t="s">
-        <v>167</v>
+      <c r="A92" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4084,11 +4081,11 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4" t="s">
-        <v>169</v>
+      <c r="A93" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4116,11 +4113,11 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>171</v>
+      <c r="A94" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4148,11 +4145,11 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4" t="s">
-        <v>173</v>
+      <c r="A95" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4180,11 +4177,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4" t="s">
-        <v>175</v>
+      <c r="A96" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4212,11 +4209,11 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4" t="s">
-        <v>177</v>
+      <c r="A97" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4244,11 +4241,11 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4" t="s">
-        <v>179</v>
+      <c r="A98" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4309,10 +4306,10 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4341,10 +4338,10 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4373,10 +4370,10 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4405,10 +4402,10 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4437,10 +4434,10 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4468,11 +4465,11 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="4" t="s">
-        <v>185</v>
+      <c r="A105" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4500,11 +4497,11 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="4" t="s">
-        <v>187</v>
+      <c r="A106" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4532,11 +4529,11 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="4" t="s">
-        <v>189</v>
+      <c r="A107" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4564,11 +4561,11 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="4" t="s">
-        <v>191</v>
+      <c r="A108" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4596,11 +4593,11 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="4" t="s">
-        <v>193</v>
+      <c r="A109" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4628,11 +4625,11 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="4" t="s">
-        <v>195</v>
+      <c r="A110" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4660,11 +4657,11 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="4" t="s">
-        <v>197</v>
+      <c r="A111" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4692,11 +4689,11 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="4" t="s">
-        <v>199</v>
+      <c r="A112" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4724,11 +4721,11 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="4" t="s">
-        <v>201</v>
+      <c r="A113" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4756,11 +4753,11 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="4" t="s">
-        <v>203</v>
+      <c r="A114" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4788,11 +4785,11 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="4" t="s">
-        <v>205</v>
+      <c r="A115" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4821,10 +4818,10 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4853,10 +4850,10 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4884,11 +4881,11 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="4" t="s">
-        <v>211</v>
+      <c r="A118" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4917,10 +4914,10 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4949,10 +4946,10 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4981,10 +4978,10 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5012,11 +5009,11 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="4" t="s">
-        <v>214</v>
+      <c r="A122" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5044,11 +5041,11 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="4" t="s">
-        <v>216</v>
+      <c r="A123" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5076,11 +5073,11 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="4" t="s">
-        <v>218</v>
+      <c r="A124" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5109,10 +5106,10 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5141,10 +5138,10 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5173,10 +5170,10 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5205,10 +5202,10 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5237,10 +5234,10 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5269,10 +5266,10 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5301,10 +5298,10 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5361,10 +5358,10 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5393,10 +5390,10 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5425,10 +5422,10 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5457,10 +5454,10 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5489,10 +5486,10 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5521,10 +5518,10 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5553,10 +5550,10 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>19</v>
@@ -5617,7 +5614,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>21</v>
@@ -5649,7 +5646,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>23</v>
@@ -5681,10 +5678,10 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5713,10 +5710,10 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5745,10 +5742,10 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5777,10 +5774,10 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5809,10 +5806,10 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5841,10 +5838,10 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5873,7 +5870,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>41</v>
